--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1906.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1906.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.609766290614462</v>
+        <v>1.922066688537598</v>
       </c>
       <c r="B1">
-        <v>3.13944727595514</v>
+        <v>3.495248794555664</v>
       </c>
       <c r="C1">
-        <v>2.631552990203068</v>
+        <v>2.68656587600708</v>
       </c>
       <c r="D1">
-        <v>2.129613477606767</v>
+        <v>0.9650498628616333</v>
       </c>
       <c r="E1">
-        <v>1.345181778227275</v>
+        <v>0.6328781843185425</v>
       </c>
     </row>
   </sheetData>
